--- a/Summary_Data/Figure_2BC.xlsx
+++ b/Summary_Data/Figure_2BC.xlsx
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.0313910877389026</v>
+        <v>0.008537370613611468</v>
       </c>
       <c r="D2">
-        <v>0.037106479793896</v>
+        <v>0.04807538239299282</v>
       </c>
       <c r="E2">
-        <v>0.00157842099781741</v>
+        <v>0.001434101248877621</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -423,13 +423,13 @@
         </is>
       </c>
       <c r="C3">
-        <v>-0.00854405601557638</v>
+        <v>0.004671763628585858</v>
       </c>
       <c r="D3">
-        <v>0.0408494208899678</v>
+        <v>0.04648167186135692</v>
       </c>
       <c r="E3">
-        <v>0.00173763676963</v>
+        <v>0.001386560446287945</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -447,13 +447,13 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.0070231204931407</v>
+        <v>0.005257226167702486</v>
       </c>
       <c r="D4">
-        <v>0.039370596992933</v>
+        <v>0.04698452077531125</v>
       </c>
       <c r="E4">
-        <v>0.00167473113416905</v>
+        <v>0.001401560561099382</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -471,13 +471,13 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.0087360045189427</v>
+        <v>0.003555882253680876</v>
       </c>
       <c r="D5">
-        <v>0.0390708973489488</v>
+        <v>0.04737383496899825</v>
       </c>
       <c r="E5">
-        <v>0.00166198262733869</v>
+        <v>0.001413173905467782</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="C6">
-        <v>0.00867071523527114</v>
+        <v>0.004405300079540986</v>
       </c>
       <c r="D6">
-        <v>0.0379735852603492</v>
+        <v>0.04671501006111088</v>
       </c>
       <c r="E6">
-        <v>0.00161530559272304</v>
+        <v>0.001393520985903471</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="C7">
-        <v>0.00803078782046707</v>
+        <v>0.003862719068471793</v>
       </c>
       <c r="D7">
-        <v>0.0388019737480381</v>
+        <v>0.046305748683039</v>
       </c>
       <c r="E7">
-        <v>0.00165054325985237</v>
+        <v>0.001381312611800225</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.00825788755323705</v>
+        <v>0.002685325628048528</v>
       </c>
       <c r="D8">
-        <v>0.0382581712793158</v>
+        <v>0.04556947500977436</v>
       </c>
       <c r="E8">
-        <v>0.00162741120205373</v>
+        <v>0.001359349375279023</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -567,13 +567,13 @@
         </is>
       </c>
       <c r="C9">
-        <v>0.00888112369656723</v>
+        <v>0.001339601548676866</v>
       </c>
       <c r="D9">
-        <v>0.0377543334815563</v>
+        <v>0.04625439064602166</v>
       </c>
       <c r="E9">
-        <v>0.0016063575129795</v>
+        <v>0.001379780588104097</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.00789095539686367</v>
+        <v>0.003071867249248635</v>
       </c>
       <c r="D10">
-        <v>0.0390485909138127</v>
+        <v>0.04656065934957727</v>
       </c>
       <c r="E10">
-        <v>0.00166142510279804</v>
+        <v>0.001388916663750274</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C11">
-        <v>0.00804082735532689</v>
+        <v>0.003122679937794258</v>
       </c>
       <c r="D11">
-        <v>0.0381072982026052</v>
+        <v>0.04584892717876012</v>
       </c>
       <c r="E11">
-        <v>0.00162137532627901</v>
+        <v>0.001367685506675088</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="C12">
-        <v>0.00692396434012729</v>
+        <v>0.00454160003119637</v>
       </c>
       <c r="D12">
-        <v>0.0378351964437644</v>
+        <v>0.04555328509773453</v>
       </c>
       <c r="E12">
-        <v>0.00160979804059279</v>
+        <v>0.001358866425962349</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -663,13 +663,13 @@
         </is>
       </c>
       <c r="C13">
-        <v>0.00748745115633093</v>
+        <v>0.002992196491199851</v>
       </c>
       <c r="D13">
-        <v>0.0392180688013395</v>
+        <v>0.04587916995022747</v>
       </c>
       <c r="E13">
-        <v>0.00166863598570359</v>
+        <v>0.001368587656469265</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C14">
-        <v>0.00687444265432766</v>
+        <v>0.004207271338908073</v>
       </c>
       <c r="D14">
-        <v>0.037394294394317</v>
+        <v>0.04630064687590393</v>
       </c>
       <c r="E14">
-        <v>0.00159103870214588</v>
+        <v>0.001381160423557101</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C15">
-        <v>0.00646315631348769</v>
+        <v>0.002263473239523449</v>
       </c>
       <c r="D15">
-        <v>0.0377701748371</v>
+        <v>0.04558819595281013</v>
       </c>
       <c r="E15">
-        <v>0.00160741031868546</v>
+        <v>0.001359907825913244</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.00584892689722796</v>
+        <v>0.001545949974309131</v>
       </c>
       <c r="D16">
-        <v>0.0379409485926453</v>
+        <v>0.04602791799619674</v>
       </c>
       <c r="E16">
-        <v>0.00161467805038138</v>
+        <v>0.001373024849641206</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -759,17 +759,17 @@
         </is>
       </c>
       <c r="C17">
-        <v>0.00733865387325352</v>
+        <v>0.0009762439499711332</v>
       </c>
       <c r="D17">
-        <v>0.0383173761527353</v>
+        <v>0.04580317008686532</v>
       </c>
       <c r="E17">
-        <v>0.00163069792709458</v>
+        <v>0.001366320560638987</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C18">
-        <v>0.00558343029643136</v>
+        <v>0.001895143066682382</v>
       </c>
       <c r="D18">
-        <v>0.0376320898562817</v>
+        <v>0.04547937145570486</v>
       </c>
       <c r="E18">
-        <v>0.00160153374480196</v>
+        <v>0.00135666156266085</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.00669628208015615</v>
+        <v>0.002383189369319072</v>
       </c>
       <c r="D19">
-        <v>0.0382230197210224</v>
+        <v>0.04601416083698504</v>
       </c>
       <c r="E19">
-        <v>0.00162668233800547</v>
+        <v>0.001372614469978591</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="C20">
-        <v>0.00604016805701256</v>
+        <v>0.002100780894049745</v>
       </c>
       <c r="D20">
-        <v>0.0377033662849311</v>
+        <v>0.04523999381559503</v>
       </c>
       <c r="E20">
-        <v>0.00160456710293133</v>
+        <v>0.001349520864957634</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -855,13 +855,13 @@
         </is>
       </c>
       <c r="C21">
-        <v>0.00520444990082</v>
+        <v>0.0009254396868023315</v>
       </c>
       <c r="D21">
-        <v>0.0384069155554793</v>
+        <v>0.04538928479990976</v>
       </c>
       <c r="E21">
-        <v>0.00163450851469499</v>
+        <v>0.001354131100257429</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -879,13 +879,13 @@
         </is>
       </c>
       <c r="C22">
-        <v>0.00458141523723408</v>
+        <v>0.001290978236422469</v>
       </c>
       <c r="D22">
-        <v>0.038610364088869</v>
+        <v>0.04586394145780149</v>
       </c>
       <c r="E22">
-        <v>0.00164355430218077</v>
+        <v>0.001368291872898568</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -903,13 +903,13 @@
         </is>
       </c>
       <c r="C23">
-        <v>0.00576591781983488</v>
+        <v>0.00152253351938234</v>
       </c>
       <c r="D23">
-        <v>0.0374960738696719</v>
+        <v>0.04486333320616855</v>
       </c>
       <c r="E23">
-        <v>0.00159612153310809</v>
+        <v>0.001338440008990964</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="C24">
-        <v>0.00528871458040561</v>
+        <v>0.00108374763001038</v>
       </c>
       <c r="D24">
-        <v>0.0374323406893641</v>
+        <v>0.04448491526460151</v>
       </c>
       <c r="E24">
-        <v>0.00159340855836261</v>
+        <v>0.00132715039502524</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -951,13 +951,13 @@
         </is>
       </c>
       <c r="C25">
-        <v>0.00603307518677441</v>
+        <v>0.001861023357436684</v>
       </c>
       <c r="D25">
-        <v>0.0376800897213417</v>
+        <v>0.04499844661238882</v>
       </c>
       <c r="E25">
-        <v>0.00160395466423281</v>
+        <v>0.001342470944182632</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -975,17 +975,17 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.00438010530273057</v>
+        <v>0.0006012289794090696</v>
       </c>
       <c r="D26">
-        <v>0.0378241182638612</v>
+        <v>0.04559764533233666</v>
       </c>
       <c r="E26">
-        <v>0.00161008562767438</v>
+        <v>0.001360347269520048</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -999,17 +999,17 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.00510451477585188</v>
+        <v>0.0001694667767901578</v>
       </c>
       <c r="D27">
-        <v>0.0384746956051206</v>
+        <v>0.04460101486975376</v>
       </c>
       <c r="E27">
-        <v>0.00163777920719275</v>
+        <v>0.001330614077847239</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1023,17 +1023,17 @@
         </is>
       </c>
       <c r="C28">
-        <v>0.00503113068359142</v>
+        <v>0.0005866128908839264</v>
       </c>
       <c r="D28">
-        <v>0.037304364019726</v>
+        <v>0.0456591045072812</v>
       </c>
       <c r="E28">
-        <v>0.00158796088619153</v>
+        <v>0.00136218082518314</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1047,17 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.00482132679412656</v>
+        <v>0.0009574315078012301</v>
       </c>
       <c r="D29">
-        <v>0.0378493788352052</v>
+        <v>0.04467339861240909</v>
       </c>
       <c r="E29">
-        <v>0.00161116091203618</v>
+        <v>0.001332773553977226</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1071,17 @@
         </is>
       </c>
       <c r="C30">
-        <v>0.00314569854233554</v>
+        <v>2.049275285492668e-05</v>
       </c>
       <c r="D30">
-        <v>0.0375275381474022</v>
+        <v>0.04553015101136045</v>
       </c>
       <c r="E30">
-        <v>0.00159746089496724</v>
+        <v>0.001358333663015175</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1095,17 +1095,17 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.0048433355008831</v>
+        <v>0.000999836028615441</v>
       </c>
       <c r="D31">
-        <v>0.036890975066091</v>
+        <v>0.04389190917967872</v>
       </c>
       <c r="E31">
-        <v>0.00157036387022822</v>
+        <v>0.001309458819011743</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1119,17 +1119,17 @@
         </is>
       </c>
       <c r="C32">
-        <v>0.00432822025567489</v>
+        <v>0.0002415211315191714</v>
       </c>
       <c r="D32">
-        <v>0.0381540121965923</v>
+        <v>0.04498220233651361</v>
       </c>
       <c r="E32">
-        <v>0.001624128452838</v>
+        <v>0.001341986317045176</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
         </is>
       </c>
       <c r="C33">
-        <v>0.00397951457347232</v>
+        <v>0.0001921432972047528</v>
       </c>
       <c r="D33">
-        <v>0.037650899298419</v>
+        <v>0.04465273433828164</v>
       </c>
       <c r="E33">
-        <v>0.00160271209513746</v>
+        <v>0.001332157061860561</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
         </is>
       </c>
       <c r="C34">
-        <v>0.0025344375691298</v>
+        <v>0.0002299341633206607</v>
       </c>
       <c r="D34">
-        <v>0.0373473886413331</v>
+        <v>0.04419492264475525</v>
       </c>
       <c r="E34">
-        <v>0.00159016742899756</v>
+        <v>0.001318498837127598</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1191,17 +1191,17 @@
         </is>
       </c>
       <c r="C35">
-        <v>0.00291475712215136</v>
+        <v>-0.0001481533831700726</v>
       </c>
       <c r="D35">
-        <v>0.0376149118317708</v>
+        <v>0.04507045492391287</v>
       </c>
       <c r="E35">
-        <v>0.00160155796202843</v>
+        <v>0.001344619219806308</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1215,17 +1215,17 @@
         </is>
       </c>
       <c r="C36">
-        <v>0.00434450115885915</v>
+        <v>0.0005596099214578253</v>
       </c>
       <c r="D36">
-        <v>0.0382518043868728</v>
+        <v>0.04425434586774511</v>
       </c>
       <c r="E36">
-        <v>0.00162867540808658</v>
+        <v>0.00132027165277523</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C37">
-        <v>0.0033923477672576</v>
+        <v>0.001856469242817921</v>
       </c>
       <c r="D37">
-        <v>0.0379303122168132</v>
+        <v>0.04458451266275423</v>
       </c>
       <c r="E37">
-        <v>0.00161498699783611</v>
+        <v>0.001330121755665484</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1263,17 +1263,17 @@
         </is>
       </c>
       <c r="C38">
-        <v>0.0024689849804148</v>
+        <v>0.001363923513074335</v>
       </c>
       <c r="D38">
-        <v>0.0375980698182416</v>
+        <v>0.04461313866233499</v>
       </c>
       <c r="E38">
-        <v>0.00160084086714369</v>
+        <v>0.001330975775650138</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1287,17 +1287,17 @@
         </is>
       </c>
       <c r="C39">
-        <v>0.00391076135765262</v>
+        <v>0.0006068076306387492</v>
       </c>
       <c r="D39">
-        <v>0.0375821017542284</v>
+        <v>0.04505298567438769</v>
       </c>
       <c r="E39">
-        <v>0.00160053869130582</v>
+        <v>0.001344098047151033</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1311,17 +1311,17 @@
         </is>
       </c>
       <c r="C40">
-        <v>0.00285971266910738</v>
+        <v>-0.0006109046645710126</v>
       </c>
       <c r="D40">
-        <v>0.0364759645988686</v>
+        <v>0.04470879879077398</v>
       </c>
       <c r="E40">
-        <v>0.00155343075342033</v>
+        <v>0.001333829672898021</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1335,17 +1335,17 @@
         </is>
       </c>
       <c r="C41">
-        <v>0.00353373346596329</v>
+        <v>-0.0009659717643809386</v>
       </c>
       <c r="D41">
-        <v>0.0371328876882402</v>
+        <v>0.04460891382868754</v>
       </c>
       <c r="E41">
-        <v>0.00158140765659162</v>
+        <v>0.001330849733156615</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1359,17 +1359,17 @@
         </is>
       </c>
       <c r="C42">
-        <v>0.00370652704918419</v>
+        <v>-0.00148416583590241</v>
       </c>
       <c r="D42">
-        <v>0.0374929446054355</v>
+        <v>0.04480939263283133</v>
       </c>
       <c r="E42">
-        <v>0.00159674168529529</v>
+        <v>0.001336830761164222</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1383,17 +1383,17 @@
         </is>
       </c>
       <c r="C43">
-        <v>0.00342688550645164</v>
+        <v>0.003785369981661653</v>
       </c>
       <c r="D43">
-        <v>0.0369319367609529</v>
+        <v>0.04500591703396271</v>
       </c>
       <c r="E43">
-        <v>0.001572849600518</v>
+        <v>0.001342693814629475</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1407,13 +1407,13 @@
         </is>
       </c>
       <c r="C44">
-        <v>0.00229421464396724</v>
+        <v>0.001601068891842754</v>
       </c>
       <c r="D44">
-        <v>0.0364348711423905</v>
+        <v>0.04462001118134111</v>
       </c>
       <c r="E44">
-        <v>0.00155204711164844</v>
+        <v>0.001331180808440682</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1431,17 +1431,17 @@
         </is>
       </c>
       <c r="C45">
-        <v>0.00382892579558074</v>
+        <v>-0.0007303156842679573</v>
       </c>
       <c r="D45">
-        <v>0.0377544891636501</v>
+        <v>0.04441107061307042</v>
       </c>
       <c r="E45">
-        <v>0.00160825999985576</v>
+        <v>0.001324947334552559</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1455,17 +1455,17 @@
         </is>
       </c>
       <c r="C46">
-        <v>0.00346053859738328</v>
+        <v>0.0003645618034781703</v>
       </c>
       <c r="D46">
-        <v>0.0377755683995412</v>
+        <v>0.04344322897331857</v>
       </c>
       <c r="E46">
-        <v>0.00160953812083979</v>
+        <v>0.001296073020487255</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="C47">
-        <v>0.00191457424648316</v>
+        <v>-0.000159746371839933</v>
       </c>
       <c r="D47">
-        <v>0.0375436547734629</v>
+        <v>0.04355782971903936</v>
       </c>
       <c r="E47">
-        <v>0.00160003489006193</v>
+        <v>0.001299491986760403</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1503,17 +1503,17 @@
         </is>
       </c>
       <c r="C48">
-        <v>0.00263551838951119</v>
+        <v>8.47051435675107e-05</v>
       </c>
       <c r="D48">
-        <v>0.0374316598080645</v>
+        <v>0.04361840485224854</v>
       </c>
       <c r="E48">
-        <v>0.00159563915464129</v>
+        <v>0.001301299168172104</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C49">
-        <v>0.00249672863501726</v>
+        <v>0.001324934235086541</v>
       </c>
       <c r="D49">
-        <v>0.0377147598527796</v>
+        <v>0.0427887487084747</v>
       </c>
       <c r="E49">
-        <v>0.00160808754856053</v>
+        <v>0.001276547441156435</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1551,17 +1551,17 @@
         </is>
       </c>
       <c r="C50">
-        <v>0.00480996754177541</v>
+        <v>8.704130220624612e-05</v>
       </c>
       <c r="D50">
-        <v>0.0373923498343275</v>
+        <v>0.04295294809614801</v>
       </c>
       <c r="E50">
-        <v>0.00159509565707742</v>
+        <v>0.00128144611930199</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1575,17 +1575,17 @@
         </is>
       </c>
       <c r="C51">
-        <v>0.00337611911583502</v>
+        <v>-0.0003820324630861241</v>
       </c>
       <c r="D51">
-        <v>0.0372715305814637</v>
+        <v>0.04395333627984431</v>
       </c>
       <c r="E51">
-        <v>0.00158994170803736</v>
+        <v>0.001329909832915532</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1599,17 @@
         </is>
       </c>
       <c r="C52">
-        <v>0.00339304712309418</v>
+        <v>0.0006408690583354891</v>
       </c>
       <c r="D52">
-        <v>0.0363201840073857</v>
+        <v>0.04299492560847213</v>
       </c>
       <c r="E52">
-        <v>0.00154935884027401</v>
+        <v>0.001300910901691885</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1623,17 +1623,17 @@
         </is>
       </c>
       <c r="C53">
-        <v>0.00200077368604854</v>
+        <v>-0.0007166160601468173</v>
       </c>
       <c r="D53">
-        <v>0.036494739561735</v>
+        <v>0.04381796922906228</v>
       </c>
       <c r="E53">
-        <v>0.00155680509085454</v>
+        <v>0.001325813989752647</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
         </is>
       </c>
       <c r="C54">
-        <v>0.00202066702881546</v>
+        <v>-0.001329372940386859</v>
       </c>
       <c r="D54">
-        <v>0.0373975138640381</v>
+        <v>0.04327576878583237</v>
       </c>
       <c r="E54">
-        <v>0.00159531594602425</v>
+        <v>0.001309408461483493</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1671,17 +1671,17 @@
         </is>
       </c>
       <c r="C55">
-        <v>0.00311449326858373</v>
+        <v>-0.0003215784136211151</v>
       </c>
       <c r="D55">
-        <v>0.0370713530863483</v>
+        <v>0.04297320938863517</v>
       </c>
       <c r="E55">
-        <v>0.00158215212546699</v>
+        <v>0.00130025382724113</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
         </is>
       </c>
       <c r="C56">
-        <v>0.00272873846817689</v>
+        <v>-0.0001435454650331753</v>
       </c>
       <c r="D56">
-        <v>0.036907336960659</v>
+        <v>0.04354934849744171</v>
       </c>
       <c r="E56">
-        <v>0.00157515215270457</v>
+        <v>0.001317686248321765</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1719,17 +1719,17 @@
         </is>
       </c>
       <c r="C57">
-        <v>0.00260829869770279</v>
+        <v>-0.0005906584859902024</v>
       </c>
       <c r="D57">
-        <v>0.0365826434099537</v>
+        <v>0.04352378823502436</v>
       </c>
       <c r="E57">
-        <v>0.00156166498028924</v>
+        <v>0.001316912863473245</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1743,17 +1743,17 @@
         </is>
       </c>
       <c r="C58">
-        <v>0.00215105621420027</v>
+        <v>0.000311258609087796</v>
       </c>
       <c r="D58">
-        <v>0.03693760289742</v>
+        <v>0.04349940226213952</v>
       </c>
       <c r="E58">
-        <v>0.0015775662831124</v>
+        <v>0.001316175009470121</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1767,17 +1767,17 @@
         </is>
       </c>
       <c r="C59">
-        <v>0.00270388073865088</v>
+        <v>0.0003801484175702628</v>
       </c>
       <c r="D59">
-        <v>0.0361805085717604</v>
+        <v>0.04397266828474273</v>
       </c>
       <c r="E59">
-        <v>0.0015455985732306</v>
+        <v>0.001330494767429733</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
         </is>
       </c>
       <c r="C60">
-        <v>0.0033907042164134</v>
+        <v>-0.001034101988910285</v>
       </c>
       <c r="D60">
-        <v>0.0360533904809851</v>
+        <v>0.0426914909356462</v>
       </c>
       <c r="E60">
-        <v>0.00154053416954292</v>
+        <v>0.001291729783961266</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1815,17 +1815,17 @@
         </is>
       </c>
       <c r="C61">
-        <v>0.00229616912068459</v>
+        <v>-0.001030241622818824</v>
       </c>
       <c r="D61">
-        <v>0.0364412769699539</v>
+        <v>0.04271443724770271</v>
       </c>
       <c r="E61">
-        <v>0.00155784886502329</v>
+        <v>0.001292424077696759</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1839,17 +1839,17 @@
         </is>
       </c>
       <c r="C62">
-        <v>0.0024027358425759</v>
+        <v>0.0004674413033434102</v>
       </c>
       <c r="D62">
-        <v>0.0360619920928717</v>
+        <v>0.04332538550382895</v>
       </c>
       <c r="E62">
-        <v>0.00154200143770691</v>
+        <v>0.001310909730027035</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1863,17 +1863,17 @@
         </is>
       </c>
       <c r="C63">
-        <v>0.00368994384933238</v>
+        <v>-0.0004051757532510147</v>
       </c>
       <c r="D63">
-        <v>0.0360528483476176</v>
+        <v>0.04327295345632237</v>
       </c>
       <c r="E63">
-        <v>0.00154197745995106</v>
+        <v>0.001309323277178611</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1887,17 +1887,17 @@
         </is>
       </c>
       <c r="C64">
-        <v>0.00165558999242524</v>
+        <v>-0.001103686262734631</v>
       </c>
       <c r="D64">
-        <v>0.0359634720443142</v>
+        <v>0.04289563324061125</v>
       </c>
       <c r="E64">
-        <v>0.00153815484255843</v>
+        <v>0.001297906581484861</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1911,17 +1911,17 @@
         </is>
       </c>
       <c r="C65">
-        <v>0.00308423640569937</v>
+        <v>-0.0008072824226382945</v>
       </c>
       <c r="D65">
-        <v>0.0365399625115569</v>
+        <v>0.04336194496280227</v>
       </c>
       <c r="E65">
-        <v>0.00156281129404858</v>
+        <v>0.001312015921003418</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1935,17 +1935,17 @@
         </is>
       </c>
       <c r="C66">
-        <v>0.00217789640063728</v>
+        <v>-0.001013627100854681</v>
       </c>
       <c r="D66">
-        <v>0.035641015106895</v>
+        <v>0.04293108989203639</v>
       </c>
       <c r="E66">
-        <v>0.00152472645829683</v>
+        <v>0.001298979404468589</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1959,17 +1959,17 @@
         </is>
       </c>
       <c r="C67">
-        <v>0.00262848853856627</v>
+        <v>-4.761281857486131e-06</v>
       </c>
       <c r="D67">
-        <v>0.0357476232676058</v>
+        <v>0.04256938864841536</v>
       </c>
       <c r="E67">
-        <v>0.00153001626687604</v>
+        <v>0.001288188808044584</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -1983,17 +1983,17 @@
         </is>
       </c>
       <c r="C68">
-        <v>0.00273318636037515</v>
+        <v>-0.0001891885299763565</v>
       </c>
       <c r="D68">
-        <v>0.035828257682682</v>
+        <v>0.0428086847170462</v>
       </c>
       <c r="E68">
-        <v>0.00153346746042289</v>
+        <v>0.00129543012691729</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2007,17 +2007,17 @@
         </is>
       </c>
       <c r="C69">
-        <v>0.0027103018142451</v>
+        <v>-0.00125954616316218</v>
       </c>
       <c r="D69">
-        <v>0.0355531243033498</v>
+        <v>0.04233997044883491</v>
       </c>
       <c r="E69">
-        <v>0.00152241778449497</v>
+        <v>0.00128124640256392</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="C70">
-        <v>0.00224540075780742</v>
+        <v>-0.0004441642512378277</v>
       </c>
       <c r="D70">
-        <v>0.0347088711461008</v>
+        <v>0.04320862679497574</v>
       </c>
       <c r="E70">
-        <v>0.00148662092511153</v>
+        <v>0.001307532741613263</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2055,17 +2055,17 @@
         </is>
       </c>
       <c r="C71">
-        <v>0.00395708312262797</v>
+        <v>0.0005345062682638017</v>
       </c>
       <c r="D71">
-        <v>0.0364001782835435</v>
+        <v>0.04303018588296769</v>
       </c>
       <c r="E71">
-        <v>0.00155943395981782</v>
+        <v>0.001302132955686232</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2079,17 +2079,17 @@
         </is>
       </c>
       <c r="C72">
-        <v>0.00289141169478374</v>
+        <v>0.0002111553819879407</v>
       </c>
       <c r="D72">
-        <v>0.0357259608681278</v>
+        <v>0.04189999789495961</v>
       </c>
       <c r="E72">
-        <v>0.00153054955365613</v>
+        <v>0.001267932428890727</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2103,17 +2103,17 @@
         </is>
       </c>
       <c r="C73">
-        <v>0.00318673534094021</v>
+        <v>-5.826060416874014e-05</v>
       </c>
       <c r="D73">
-        <v>0.0359920473094439</v>
+        <v>0.04273652710955765</v>
       </c>
       <c r="E73">
-        <v>0.00154231755529946</v>
+        <v>0.001293246571425109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2127,17 +2127,17 @@
         </is>
       </c>
       <c r="C74">
-        <v>0.00206633310923992</v>
+        <v>-0.001142649959835431</v>
       </c>
       <c r="D74">
-        <v>0.0358211195392333</v>
+        <v>0.04233405213863412</v>
       </c>
       <c r="E74">
-        <v>0.00153536002706009</v>
+        <v>0.001281067309060225</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2151,17 +2151,17 @@
         </is>
       </c>
       <c r="C75">
-        <v>0.0026378985075638</v>
+        <v>-0.0004211399481685961</v>
       </c>
       <c r="D75">
-        <v>0.0364300409194274</v>
+        <v>0.04225945334615652</v>
       </c>
       <c r="E75">
-        <v>0.0015614595336863</v>
+        <v>0.001278809881067614</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2175,17 +2175,17 @@
         </is>
       </c>
       <c r="C76">
-        <v>0.00227807416905486</v>
+        <v>-0.0007226230675129542</v>
       </c>
       <c r="D76">
-        <v>0.0355249267069975</v>
+        <v>0.04212462091951302</v>
       </c>
       <c r="E76">
-        <v>0.00152266464956307</v>
+        <v>0.001274729727969852</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2199,17 +2199,17 @@
         </is>
       </c>
       <c r="C77">
-        <v>0.0019169894572481</v>
+        <v>-0.0005347933315506967</v>
       </c>
       <c r="D77">
-        <v>0.0361947006111526</v>
+        <v>0.04235167252943421</v>
       </c>
       <c r="E77">
-        <v>0.00155137240891943</v>
+        <v>0.001281600518273294</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2223,17 +2223,17 @@
         </is>
       </c>
       <c r="C78">
-        <v>0.00279763563773061</v>
+        <v>-0.001271272638449047</v>
       </c>
       <c r="D78">
-        <v>0.0352624378813518</v>
+        <v>0.041659932712924</v>
       </c>
       <c r="E78">
-        <v>0.00151177542771039</v>
+        <v>0.001260667835939825</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2247,17 +2247,17 @@
         </is>
       </c>
       <c r="C79">
-        <v>0.00296359518964849</v>
+        <v>-5.169141034687179e-05</v>
       </c>
       <c r="D79">
-        <v>0.036059060401619</v>
+        <v>0.04123660364372098</v>
       </c>
       <c r="E79">
-        <v>0.00154592832307607</v>
+        <v>0.001247857509402811</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2271,17 +2271,17 @@
         </is>
       </c>
       <c r="C80">
-        <v>0.00228786501742912</v>
+        <v>-0.00191351592142258</v>
       </c>
       <c r="D80">
-        <v>0.0359984044077323</v>
+        <v>0.04138450529196216</v>
       </c>
       <c r="E80">
-        <v>0.00154332787209733</v>
+        <v>0.001252333149152519</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2295,17 +2295,17 @@
         </is>
       </c>
       <c r="C81">
-        <v>0.00287352508755569</v>
+        <v>-0.0004927625658949212</v>
       </c>
       <c r="D81">
-        <v>0.035695428158186</v>
+        <v>0.04263910939278705</v>
       </c>
       <c r="E81">
-        <v>0.00153033863831874</v>
+        <v>0.001290452439383059</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2319,17 +2319,17 @@
         </is>
       </c>
       <c r="C82">
-        <v>0.0026682464465186</v>
+        <v>-0.001046550382200249</v>
       </c>
       <c r="D82">
-        <v>0.0355148801823492</v>
+        <v>0.04160926690446739</v>
       </c>
       <c r="E82">
-        <v>0.00152296255274164</v>
+        <v>0.001259434900683044</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2343,17 +2343,17 @@
         </is>
       </c>
       <c r="C83">
-        <v>0.00215199174190109</v>
+        <v>-0.0003636771583182166</v>
       </c>
       <c r="D83">
-        <v>0.0360963320399038</v>
+        <v>0.04225216830942657</v>
       </c>
       <c r="E83">
-        <v>0.00154826721220063</v>
+        <v>0.001278894327088291</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2367,17 +2367,17 @@
         </is>
       </c>
       <c r="C84">
-        <v>0.00401843575565698</v>
+        <v>-0.0001903338614144193</v>
       </c>
       <c r="D84">
-        <v>0.0356735706942588</v>
+        <v>0.04187628643446598</v>
       </c>
       <c r="E84">
-        <v>0.00153013385922381</v>
+        <v>0.001267517083818266</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
         </is>
       </c>
       <c r="C85">
-        <v>0.00285507144150398</v>
+        <v>0.002724218442922458</v>
       </c>
       <c r="D85">
-        <v>0.0349905220121131</v>
+        <v>0.0418562749122455</v>
       </c>
       <c r="E85">
-        <v>0.0015011956182802</v>
+        <v>0.001266911372365619</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2415,17 +2415,17 @@
         </is>
       </c>
       <c r="C86">
-        <v>0.00196522169199488</v>
+        <v>-0.0001493764791445114</v>
       </c>
       <c r="D86">
-        <v>0.0358773889757119</v>
+        <v>0.04133142485861914</v>
       </c>
       <c r="E86">
-        <v>0.00153961370427346</v>
+        <v>0.001251025140178927</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2439,17 +2439,17 @@
         </is>
       </c>
       <c r="C87">
-        <v>0.00177784337740881</v>
+        <v>-0.000305990996692007</v>
       </c>
       <c r="D87">
-        <v>0.0347939051487874</v>
+        <v>0.04097750217267333</v>
       </c>
       <c r="E87">
-        <v>0.00149347596094819</v>
+        <v>0.001240312560602675</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2463,13 +2463,13 @@
         </is>
       </c>
       <c r="C88">
-        <v>0.00140036137658554</v>
+        <v>-0.001984725212621131</v>
       </c>
       <c r="D88">
-        <v>0.0355262367054485</v>
+        <v>0.04207425886752646</v>
       </c>
       <c r="E88">
-        <v>0.00152491018974889</v>
+        <v>0.001273509340114008</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="C89">
-        <v>0.0009852426419562799</v>
+        <v>-0.0001117149991861979</v>
       </c>
       <c r="D89">
-        <v>0.0354610726910278</v>
+        <v>0.04163134406575869</v>
       </c>
       <c r="E89">
-        <v>0.00152247826909072</v>
+        <v>0.001260253424776212</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -2511,13 +2511,13 @@
         </is>
       </c>
       <c r="C90">
-        <v>0.000717012361156045</v>
+        <v>-0.001096350926860177</v>
       </c>
       <c r="D90">
-        <v>0.035243386935787</v>
+        <v>0.04164154183247671</v>
       </c>
       <c r="E90">
-        <v>0.00151313219446031</v>
+        <v>0.001260562128968207</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -2535,17 +2535,17 @@
         </is>
       </c>
       <c r="C91">
-        <v>0.00280814391492669</v>
+        <v>-0.0004466328152041997</v>
       </c>
       <c r="D91">
-        <v>0.0346903662011786</v>
+        <v>0.04133574553707382</v>
       </c>
       <c r="E91">
-        <v>0.00149010411084648</v>
+        <v>0.001251305141541699</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="C92">
-        <v>0.00058970187199778</v>
+        <v>-0.0005751704039108108</v>
       </c>
       <c r="D92">
-        <v>0.0347981576538482</v>
+        <v>0.04117150641125939</v>
       </c>
       <c r="E92">
-        <v>0.00149509332409738</v>
+        <v>0.001246333336632807</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2583,13 +2583,13 @@
         </is>
       </c>
       <c r="C93">
-        <v>0.00151806491581506</v>
+        <v>-0.0003333327870602023</v>
       </c>
       <c r="D93">
-        <v>0.0354150138401821</v>
+        <v>0.04092795075110778</v>
       </c>
       <c r="E93">
-        <v>0.00152159638139398</v>
+        <v>0.001238960481835112</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -2607,13 +2607,13 @@
         </is>
       </c>
       <c r="C94">
-        <v>0.000336713647013264</v>
+        <v>0.00039182962592536</v>
       </c>
       <c r="D94">
-        <v>0.034730079573101</v>
+        <v>0.04123970776046056</v>
       </c>
       <c r="E94">
-        <v>0.00149252701919903</v>
+        <v>0.001248397910473358</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="C95">
-        <v>0.0008978009624869199</v>
+        <v>-0.00191415390601622</v>
       </c>
       <c r="D95">
-        <v>0.0353295294157246</v>
+        <v>0.04105085350757331</v>
       </c>
       <c r="E95">
-        <v>0.00151828840810939</v>
+        <v>0.00124268096271859</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -2655,17 +2655,17 @@
         </is>
       </c>
       <c r="C96">
-        <v>0.00236628039769963</v>
+        <v>0.0007673363643199253</v>
       </c>
       <c r="D96">
-        <v>0.0355218581831383</v>
+        <v>0.04067942081478157</v>
       </c>
       <c r="E96">
-        <v>0.00152692083953715</v>
+        <v>0.001231437047018312</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2679,17 +2679,17 @@
         </is>
       </c>
       <c r="C97">
-        <v>0.00206207367751898</v>
+        <v>-0.0007880297817402336</v>
       </c>
       <c r="D97">
-        <v>0.034740053635534</v>
+        <v>0.0406726939510026</v>
       </c>
       <c r="E97">
-        <v>0.00149331466809118</v>
+        <v>0.001231380294524224</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="C98">
-        <v>0.00132547292982842</v>
+        <v>-0.0003314404087942969</v>
       </c>
       <c r="D98">
-        <v>0.0352374993489986</v>
+        <v>0.04121072881161582</v>
       </c>
       <c r="E98">
-        <v>0.00151506198145341</v>
+        <v>0.001247818369236601</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="C99">
-        <v>0.00139327960174288</v>
+        <v>-0.001517189662159278</v>
       </c>
       <c r="D99">
-        <v>0.0351861769666646</v>
+        <v>0.04104332323955473</v>
       </c>
       <c r="E99">
-        <v>0.00151285533819812</v>
+        <v>0.001242749501154086</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -2751,13 +2751,13 @@
         </is>
       </c>
       <c r="C100">
-        <v>0.0328595882384255</v>
+        <v>0.02453243888734036</v>
       </c>
       <c r="D100">
-        <v>0.0334881372122273</v>
+        <v>0.04969945099453677</v>
       </c>
       <c r="E100">
-        <v>0.0014245053491241</v>
+        <v>0.00148254764064416</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -2775,13 +2775,13 @@
         </is>
       </c>
       <c r="C101">
-        <v>0.0086970638493085</v>
+        <v>0.008702093370812904</v>
       </c>
       <c r="D101">
-        <v>0.0361441660400609</v>
+        <v>0.04883242908116969</v>
       </c>
       <c r="E101">
-        <v>0.00153748646983257</v>
+        <v>0.001456684149874605</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -2799,13 +2799,13 @@
         </is>
       </c>
       <c r="C102">
-        <v>0.00618371826346663</v>
+        <v>0.009637895911667109</v>
       </c>
       <c r="D102">
-        <v>0.0368529368294447</v>
+        <v>0.0474528159662469</v>
       </c>
       <c r="E102">
-        <v>0.00156763588585956</v>
+        <v>0.001415529929302725</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -2823,13 +2823,13 @@
         </is>
       </c>
       <c r="C103">
-        <v>0.00557323020471785</v>
+        <v>0.01051805610780306</v>
       </c>
       <c r="D103">
-        <v>0.0362429643237994</v>
+        <v>0.04702167216501178</v>
       </c>
       <c r="E103">
-        <v>0.00154168911277977</v>
+        <v>0.001402668796784988</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -2847,13 +2847,13 @@
         </is>
       </c>
       <c r="C104">
-        <v>0.00425762457247169</v>
+        <v>0.007690066097707397</v>
       </c>
       <c r="D104">
-        <v>0.0353805968523495</v>
+        <v>0.04719605266936402</v>
       </c>
       <c r="E104">
-        <v>0.00150500606086184</v>
+        <v>0.001407870612904248</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -2871,13 +2871,13 @@
         </is>
       </c>
       <c r="C105">
-        <v>0.00342559553675081</v>
+        <v>0.008387419330144724</v>
       </c>
       <c r="D105">
-        <v>0.035577428303257</v>
+        <v>0.04723051438207817</v>
       </c>
       <c r="E105">
-        <v>0.00151337880052534</v>
+        <v>0.00140889861482086</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -2895,13 +2895,13 @@
         </is>
       </c>
       <c r="C106">
-        <v>0.00424450768493161</v>
+        <v>0.005682708611168615</v>
       </c>
       <c r="D106">
-        <v>0.0356772789129563</v>
+        <v>0.04739109112799547</v>
       </c>
       <c r="E106">
-        <v>0.00151762620690476</v>
+        <v>0.00141368866121047</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -2919,13 +2919,13 @@
         </is>
       </c>
       <c r="C107">
-        <v>0.00223100077536952</v>
+        <v>0.005495410456560245</v>
       </c>
       <c r="D107">
-        <v>0.0356777031651767</v>
+        <v>0.04658005364672509</v>
       </c>
       <c r="E107">
-        <v>0.00151800180906998</v>
+        <v>0.001389495200714024</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -2943,17 +2943,17 @@
         </is>
       </c>
       <c r="C108">
-        <v>0.00157592843536256</v>
+        <v>0.005767062817119163</v>
       </c>
       <c r="D108">
-        <v>0.0357036415224731</v>
+        <v>0.04685285518252365</v>
       </c>
       <c r="E108">
-        <v>0.00151910542476851</v>
+        <v>0.001397632941980155</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -2967,13 +2967,13 @@
         </is>
       </c>
       <c r="C109">
-        <v>0.00282450026869099</v>
+        <v>0.006067518785827838</v>
       </c>
       <c r="D109">
-        <v>0.034942213114244</v>
+        <v>0.04733007364954077</v>
       </c>
       <c r="E109">
-        <v>0.00148670844854451</v>
+        <v>0.001411868493846227</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -2991,13 +2991,13 @@
         </is>
       </c>
       <c r="C110">
-        <v>0.0022099293851267</v>
+        <v>0.004795446241250125</v>
       </c>
       <c r="D110">
-        <v>0.0362118248624371</v>
+        <v>0.04631024696378139</v>
       </c>
       <c r="E110">
-        <v>0.00154072742285042</v>
+        <v>0.001381446796692978</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="C111">
-        <v>0.00359039523712146</v>
+        <v>0.003405855819009465</v>
       </c>
       <c r="D111">
-        <v>0.0356562688738039</v>
+        <v>0.0469823456695411</v>
       </c>
       <c r="E111">
-        <v>0.00151708983071394</v>
+        <v>0.001401495677124546</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -3039,13 +3039,13 @@
         </is>
       </c>
       <c r="C112">
-        <v>0.00275089119506186</v>
+        <v>0.002099469033151533</v>
       </c>
       <c r="D112">
-        <v>0.0351113995740796</v>
+        <v>0.04607585057514584</v>
       </c>
       <c r="E112">
-        <v>0.0014939069318917</v>
+        <v>0.001374454691025949</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -3063,13 +3063,13 @@
         </is>
       </c>
       <c r="C113">
-        <v>0.00343965108511494</v>
+        <v>0.004151650098856674</v>
       </c>
       <c r="D113">
-        <v>0.0354255423014842</v>
+        <v>0.04730992776098675</v>
       </c>
       <c r="E113">
-        <v>0.00150762824069591</v>
+        <v>0.001411267536713969</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -3087,13 +3087,13 @@
         </is>
       </c>
       <c r="C114">
-        <v>0.00277889003020772</v>
+        <v>0.005657264292785811</v>
       </c>
       <c r="D114">
-        <v>0.0350667131962611</v>
+        <v>0.04761129499678281</v>
       </c>
       <c r="E114">
-        <v>0.00149235731306934</v>
+        <v>0.001420257400293067</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="C115">
-        <v>0.00208460549000057</v>
+        <v>0.00418950430854624</v>
       </c>
       <c r="D115">
-        <v>0.0357563083952029</v>
+        <v>0.04643858371417979</v>
       </c>
       <c r="E115">
-        <v>0.00152170487217585</v>
+        <v>0.001385275115571833</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -3135,13 +3135,13 @@
         </is>
       </c>
       <c r="C116">
-        <v>0.00271039665362215</v>
+        <v>0.002973751865063176</v>
       </c>
       <c r="D116">
-        <v>0.035853056479372</v>
+        <v>0.04715574914893977</v>
       </c>
       <c r="E116">
-        <v>0.00152582224440081</v>
+        <v>0.001406668348333535</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -3159,13 +3159,13 @@
         </is>
       </c>
       <c r="C117">
-        <v>0.00227183598758494</v>
+        <v>0.004008982289387135</v>
       </c>
       <c r="D117">
-        <v>0.0358739002107842</v>
+        <v>0.04577909996201534</v>
       </c>
       <c r="E117">
-        <v>0.0015267093048684</v>
+        <v>0.00136560254251017</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -3183,13 +3183,13 @@
         </is>
       </c>
       <c r="C118">
-        <v>0.00187929008057576</v>
+        <v>0.00177802998967754</v>
       </c>
       <c r="D118">
-        <v>0.0351771306867944</v>
+        <v>0.046947168468663</v>
       </c>
       <c r="E118">
-        <v>0.0014970564232644</v>
+        <v>0.001400446332008601</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -3207,17 +3207,17 @@
         </is>
       </c>
       <c r="C119">
-        <v>0.00163392632756186</v>
+        <v>0.002873852313021007</v>
       </c>
       <c r="D119">
-        <v>0.0353636632346943</v>
+        <v>0.04706230110036779</v>
       </c>
       <c r="E119">
-        <v>0.00150499481231233</v>
+        <v>0.001404043395938553</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3231,13 +3231,13 @@
         </is>
       </c>
       <c r="C120">
-        <v>0.00214528546375947</v>
+        <v>0.001780389882129503</v>
       </c>
       <c r="D120">
-        <v>0.0352378874246358</v>
+        <v>0.0467506937514378</v>
       </c>
       <c r="E120">
-        <v>0.0014999957354253</v>
+        <v>0.001394746990319584</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -3255,17 +3255,17 @@
         </is>
       </c>
       <c r="C121">
-        <v>0.00360077999994632</v>
+        <v>0.00177692352823389</v>
       </c>
       <c r="D121">
-        <v>0.0353449048400959</v>
+        <v>0.04619853268222781</v>
       </c>
       <c r="E121">
-        <v>0.00150455122040293</v>
+        <v>0.001378273972966155</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3279,13 +3279,13 @@
         </is>
       </c>
       <c r="C122">
-        <v>0.0009358245835583879</v>
+        <v>0.001743771219063651</v>
       </c>
       <c r="D122">
-        <v>0.0350923083640298</v>
+        <v>0.04777443074218411</v>
       </c>
       <c r="E122">
-        <v>0.00149379876999872</v>
+        <v>0.001425288870496032</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -3303,13 +3303,13 @@
         </is>
       </c>
       <c r="C123">
-        <v>0.00127696058017422</v>
+        <v>0.001555773663920649</v>
       </c>
       <c r="D123">
-        <v>0.0352780828480414</v>
+        <v>0.04651443042867628</v>
       </c>
       <c r="E123">
-        <v>0.00150170676205313</v>
+        <v>0.001387698377092654</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="C124">
-        <v>0.00182506370123669</v>
+        <v>0.002549614219405044</v>
       </c>
       <c r="D124">
-        <v>0.0347597120337414</v>
+        <v>0.04612793959913421</v>
       </c>
       <c r="E124">
-        <v>0.00147964090999313</v>
+        <v>0.001376167918867671</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -3351,13 +3351,13 @@
         </is>
       </c>
       <c r="C125">
-        <v>0.00167337368098171</v>
+        <v>0.002888757976427917</v>
       </c>
       <c r="D125">
-        <v>0.0341978693515365</v>
+        <v>0.04646845759851306</v>
       </c>
       <c r="E125">
-        <v>0.0014557245606067</v>
+        <v>0.001386326836664879</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -3375,17 +3375,17 @@
         </is>
       </c>
       <c r="C126">
-        <v>0.00214341270699453</v>
+        <v>0.00102549467643187</v>
       </c>
       <c r="D126">
-        <v>0.0347398198255666</v>
+        <v>0.04592459370385078</v>
       </c>
       <c r="E126">
-        <v>0.00147879414449125</v>
+        <v>0.001370101354872956</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3399,17 +3399,17 @@
         </is>
       </c>
       <c r="C127">
-        <v>0.00113432904112315</v>
+        <v>0.001946769235141995</v>
       </c>
       <c r="D127">
-        <v>0.0358703451390457</v>
+        <v>0.0466169639014874</v>
       </c>
       <c r="E127">
-        <v>0.00152691800414758</v>
+        <v>0.001390757331754817</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3423,17 +3423,17 @@
         </is>
       </c>
       <c r="C128">
-        <v>0.00198973976735897</v>
+        <v>0.002635836848726125</v>
       </c>
       <c r="D128">
-        <v>0.0352993599399589</v>
+        <v>0.04694904182809545</v>
       </c>
       <c r="E128">
-        <v>0.00150261247886736</v>
+        <v>0.0014006644508053</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3447,17 +3447,17 @@
         </is>
       </c>
       <c r="C129">
-        <v>0.00230180208529386</v>
+        <v>0.001225604388535297</v>
       </c>
       <c r="D129">
-        <v>0.0344503562873767</v>
+        <v>0.0460801874673638</v>
       </c>
       <c r="E129">
-        <v>0.0014664723481357</v>
+        <v>0.001374743295258399</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3471,13 +3471,13 @@
         </is>
       </c>
       <c r="C130">
-        <v>0.000570405624519622</v>
+        <v>0.001249905447849311</v>
       </c>
       <c r="D130">
-        <v>0.0361767932398728</v>
+        <v>0.04579844434538222</v>
       </c>
       <c r="E130">
-        <v>0.00153996279422908</v>
+        <v>0.001366337850549572</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -3495,17 +3495,17 @@
         </is>
       </c>
       <c r="C131">
-        <v>-0.000242697600247411</v>
+        <v>0.00252207009020685</v>
       </c>
       <c r="D131">
-        <v>0.0347030290879241</v>
+        <v>0.0464709243685999</v>
       </c>
       <c r="E131">
-        <v>0.00147722804749735</v>
+        <v>0.001386400429586788</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3519,13 +3519,13 @@
         </is>
       </c>
       <c r="C132">
-        <v>8.20777720605313e-05</v>
+        <v>0.002824179419019457</v>
       </c>
       <c r="D132">
-        <v>0.035434622391198</v>
+        <v>0.04644254157140455</v>
       </c>
       <c r="E132">
-        <v>0.00150872616359984</v>
+        <v>0.001385553665233396</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -3543,17 +3543,17 @@
         </is>
       </c>
       <c r="C133">
-        <v>0.000155009649792323</v>
+        <v>0.002078354058161122</v>
       </c>
       <c r="D133">
-        <v>0.0355127617217468</v>
+        <v>0.04669359685208166</v>
       </c>
       <c r="E133">
-        <v>0.0015120531597536</v>
+        <v>0.001393043577554055</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3567,17 +3567,17 @@
         </is>
       </c>
       <c r="C134">
-        <v>0.000753610305856785</v>
+        <v>0.00230944541380316</v>
       </c>
       <c r="D134">
-        <v>0.0353418523980849</v>
+        <v>0.04624677694339309</v>
       </c>
       <c r="E134">
-        <v>0.00150477622688932</v>
+        <v>0.001379713278624767</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3591,17 @@
         </is>
       </c>
       <c r="C135">
-        <v>0.00166354790468876</v>
+        <v>0.0007788795157780133</v>
       </c>
       <c r="D135">
-        <v>0.0354999755454448</v>
+        <v>0.04560973692390847</v>
       </c>
       <c r="E135">
-        <v>0.0015115087532546</v>
+        <v>0.001360708006647129</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3615,13 +3615,13 @@
         </is>
       </c>
       <c r="C136">
-        <v>0.00126183060445802</v>
+        <v>0.0003965028458800955</v>
       </c>
       <c r="D136">
-        <v>0.0343831443607483</v>
+        <v>0.04528514881996289</v>
       </c>
       <c r="E136">
-        <v>0.00146395660467874</v>
+        <v>0.001351024336850086</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -3639,13 +3639,13 @@
         </is>
       </c>
       <c r="C137">
-        <v>0.00128628516441294</v>
+        <v>0.0003116228883957147</v>
       </c>
       <c r="D137">
-        <v>0.0339670951520094</v>
+        <v>0.04614038519208895</v>
       </c>
       <c r="E137">
-        <v>0.0014465835460078</v>
+        <v>0.001376539217172005</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -3663,13 +3663,13 @@
         </is>
       </c>
       <c r="C138">
-        <v>0.000881118463722801</v>
+        <v>0.001027434097638713</v>
       </c>
       <c r="D138">
-        <v>0.0347364941292084</v>
+        <v>0.0453014973058327</v>
       </c>
       <c r="E138">
-        <v>0.00147935054877181</v>
+        <v>0.001351512072959082</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="C139">
-        <v>0.00136895598515686</v>
+        <v>0.001099129598119645</v>
       </c>
       <c r="D139">
-        <v>0.0350540193907934</v>
+        <v>0.04564711108477141</v>
       </c>
       <c r="E139">
-        <v>0.00149287324821947</v>
+        <v>0.001361823016804122</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -3711,13 +3711,13 @@
         </is>
       </c>
       <c r="C140">
-        <v>0.00114972172961938</v>
+        <v>0.002288769144145029</v>
       </c>
       <c r="D140">
-        <v>0.0342275866375313</v>
+        <v>0.04551757969996648</v>
       </c>
       <c r="E140">
-        <v>0.00145767730292592</v>
+        <v>0.00135795861406244</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -3735,17 +3735,17 @@
         </is>
       </c>
       <c r="C141">
-        <v>0.000693298381367302</v>
+        <v>0.007067802372576575</v>
       </c>
       <c r="D141">
-        <v>0.035387571486823</v>
+        <v>0.0459794442366872</v>
       </c>
       <c r="E141">
-        <v>0.00150707849514133</v>
+        <v>0.001371737750174335</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3759,13 +3759,13 @@
         </is>
       </c>
       <c r="C142">
-        <v>0.00204151090464996</v>
+        <v>0.00244443040644441</v>
       </c>
       <c r="D142">
-        <v>0.0348660193536662</v>
+        <v>0.04599967332558238</v>
       </c>
       <c r="E142">
-        <v>0.00148521740123783</v>
+        <v>0.00137234125909772</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -3783,13 +3783,13 @@
         </is>
       </c>
       <c r="C143">
-        <v>0.000321327704164156</v>
+        <v>0.002672100944760517</v>
       </c>
       <c r="D143">
-        <v>0.0344762480866679</v>
+        <v>0.04564273560202198</v>
       </c>
       <c r="E143">
-        <v>0.00146861398395705</v>
+        <v>0.001361692479887848</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -3807,13 +3807,13 @@
         </is>
       </c>
       <c r="C144">
-        <v>0.00115437040193945</v>
+        <v>-0.0003118054004431295</v>
       </c>
       <c r="D144">
-        <v>0.0346247889443926</v>
+        <v>0.04570268989054772</v>
       </c>
       <c r="E144">
-        <v>0.00147528998485457</v>
+        <v>0.001363481139194652</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -3831,13 +3831,13 @@
         </is>
       </c>
       <c r="C145">
-        <v>0.00145756291136087</v>
+        <v>0.0008702867457579639</v>
       </c>
       <c r="D145">
-        <v>0.0345731312821363</v>
+        <v>0.04485547964288412</v>
       </c>
       <c r="E145">
-        <v>0.00147343716651716</v>
+        <v>0.001338205708002566</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -3855,13 +3855,13 @@
         </is>
       </c>
       <c r="C146">
-        <v>0.000669509234867857</v>
+        <v>-0.0008214785853337548</v>
       </c>
       <c r="D146">
-        <v>0.0352530262246638</v>
+        <v>0.04590181622129629</v>
       </c>
       <c r="E146">
-        <v>0.00150276822486912</v>
+        <v>0.00136942181789306</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -3879,17 +3879,17 @@
         </is>
       </c>
       <c r="C147">
-        <v>0.00151652690893512</v>
+        <v>-7.116257385035868e-05</v>
       </c>
       <c r="D147">
-        <v>0.0353869515470607</v>
+        <v>0.04456348242097855</v>
       </c>
       <c r="E147">
-        <v>0.001508834111273</v>
+        <v>0.001329494345373388</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -3903,13 +3903,13 @@
         </is>
       </c>
       <c r="C148">
-        <v>0.000420090059087659</v>
+        <v>0.0004695630607069054</v>
       </c>
       <c r="D148">
-        <v>0.0345222791333918</v>
+        <v>0.04425439965540218</v>
       </c>
       <c r="E148">
-        <v>0.00147266319881119</v>
+        <v>0.001320273257460996</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -3927,13 +3927,13 @@
         </is>
       </c>
       <c r="C149">
-        <v>0.000278850611861586</v>
+        <v>5.836641548032783e-05</v>
       </c>
       <c r="D149">
-        <v>0.0339750561079893</v>
+        <v>0.04549531038108483</v>
       </c>
       <c r="E149">
-        <v>0.00144931957170191</v>
+        <v>0.001376565825222565</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="C150">
-        <v>-0.00114216687327632</v>
+        <v>0.001005235094753877</v>
       </c>
       <c r="D150">
-        <v>0.0345493032516014</v>
+        <v>0.04540710171137148</v>
       </c>
       <c r="E150">
-        <v>0.001473816002895</v>
+        <v>0.00137389686793447</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -3975,13 +3975,13 @@
         </is>
       </c>
       <c r="C151">
-        <v>5.51285480116951e-05</v>
+        <v>-0.0002027496388186052</v>
       </c>
       <c r="D151">
-        <v>0.034750287802983</v>
+        <v>0.045372361860325</v>
       </c>
       <c r="E151">
-        <v>0.00148238967067648</v>
+        <v>0.001372845733403827</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -3999,13 +3999,13 @@
         </is>
       </c>
       <c r="C152">
-        <v>0.000786179905169241</v>
+        <v>0.001135965053694957</v>
       </c>
       <c r="D152">
-        <v>0.0336657486645922</v>
+        <v>0.04576016647128858</v>
       </c>
       <c r="E152">
-        <v>0.00143612502891841</v>
+        <v>0.001384579658721504</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -4023,13 +4023,13 @@
         </is>
       </c>
       <c r="C153">
-        <v>0.0013402498805252</v>
+        <v>0.001323322332270847</v>
       </c>
       <c r="D153">
-        <v>0.0349274334523472</v>
+        <v>0.04535049920580757</v>
       </c>
       <c r="E153">
-        <v>0.00149065271356626</v>
+        <v>0.001372184228233178</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -4047,13 +4047,13 @@
         </is>
       </c>
       <c r="C154">
-        <v>0.000664393738839247</v>
+        <v>0.0007252796737872457</v>
       </c>
       <c r="D154">
-        <v>0.0351353293055288</v>
+        <v>0.04491798702067686</v>
       </c>
       <c r="E154">
-        <v>0.00149952541009883</v>
+        <v>0.001359097571871102</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -4071,13 +4071,13 @@
         </is>
       </c>
       <c r="C155">
-        <v>0.000199226678845622</v>
+        <v>0.0005406091458746309</v>
       </c>
       <c r="D155">
-        <v>0.034756563533582</v>
+        <v>0.04523786401740871</v>
       </c>
       <c r="E155">
-        <v>0.00148371202970053</v>
+        <v>0.001368776190134996</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -4095,13 +4095,13 @@
         </is>
       </c>
       <c r="C156">
-        <v>0.000188670636872051</v>
+        <v>-0.0002396840971985602</v>
       </c>
       <c r="D156">
-        <v>0.0340368323845317</v>
+        <v>0.04497335934430981</v>
       </c>
       <c r="E156">
-        <v>0.00145367741655851</v>
+        <v>0.00136077298957323</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -4119,17 +4119,17 @@
         </is>
       </c>
       <c r="C157">
-        <v>0.00173603219921894</v>
+        <v>0.0005299309144545694</v>
       </c>
       <c r="D157">
-        <v>0.03525473006813</v>
+        <v>0.04463431009821848</v>
       </c>
       <c r="E157">
-        <v>0.00150605015363056</v>
+        <v>0.001350514270568406</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4143,13 +4143,13 @@
         </is>
       </c>
       <c r="C158">
-        <v>0.000760738225331253</v>
+        <v>0.0002887312089953399</v>
       </c>
       <c r="D158">
-        <v>0.0336612001028907</v>
+        <v>0.04485673836589299</v>
       </c>
       <c r="E158">
-        <v>0.00143831767982194</v>
+        <v>0.001357244352180762</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -4167,13 +4167,13 @@
         </is>
       </c>
       <c r="C159">
-        <v>0.00133273645751049</v>
+        <v>-0.001446609978187687</v>
       </c>
       <c r="D159">
-        <v>0.0345714244115754</v>
+        <v>0.04455771901485067</v>
       </c>
       <c r="E159">
-        <v>0.0014779134750469</v>
+        <v>0.001348196830221307</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -4191,13 +4191,13 @@
         </is>
       </c>
       <c r="C160">
-        <v>0.000180740389410233</v>
+        <v>0.0005074477853725088</v>
       </c>
       <c r="D160">
-        <v>0.0348652889418723</v>
+        <v>0.04403563617721715</v>
       </c>
       <c r="E160">
-        <v>0.00149083072105329</v>
+        <v>0.001332400006632203</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -4215,13 +4215,13 @@
         </is>
       </c>
       <c r="C161">
-        <v>0.000983437909779227</v>
+        <v>0.00123137433419932</v>
       </c>
       <c r="D161">
-        <v>0.0351553835256861</v>
+        <v>0.04477749154200415</v>
       </c>
       <c r="E161">
-        <v>0.00150359296080763</v>
+        <v>0.001354846556262698</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -4239,13 +4239,13 @@
         </is>
       </c>
       <c r="C162">
-        <v>-0.000684664798919444</v>
+        <v>0.0003576496858767414</v>
       </c>
       <c r="D162">
-        <v>0.0337980913308219</v>
+        <v>0.04487557974529736</v>
       </c>
       <c r="E162">
-        <v>0.00144554168145049</v>
+        <v>0.001357814441686051</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="C163">
-        <v>0.0007922630502356399</v>
+        <v>0.001216461082769267</v>
       </c>
       <c r="D163">
-        <v>0.0340702816884656</v>
+        <v>0.04441626182393603</v>
       </c>
       <c r="E163">
-        <v>0.00145718324142534</v>
+        <v>0.001343916715785028</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -4287,13 +4287,13 @@
         </is>
       </c>
       <c r="C164">
-        <v>-0.000433583997746738</v>
+        <v>-1.060630536587967e-05</v>
       </c>
       <c r="D164">
-        <v>0.033670263031233</v>
+        <v>0.04450975349435783</v>
       </c>
       <c r="E164">
-        <v>0.00144041747261016</v>
+        <v>0.001346745522476698</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -4311,13 +4311,13 @@
         </is>
       </c>
       <c r="C165">
-        <v>0.000492182921476016</v>
+        <v>0.0005253292151541259</v>
       </c>
       <c r="D165">
-        <v>0.0339467368364631</v>
+        <v>0.04460964713109093</v>
       </c>
       <c r="E165">
-        <v>0.00145293742127509</v>
+        <v>0.0013499289040701</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -4335,13 +4335,13 @@
         </is>
       </c>
       <c r="C166">
-        <v>0.000382565682931213</v>
+        <v>5.421904707333581e-05</v>
       </c>
       <c r="D166">
-        <v>0.0353761533933141</v>
+        <v>0.04400878941400931</v>
       </c>
       <c r="E166">
-        <v>0.00151411716930343</v>
+        <v>0.001331746397556689</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -4359,17 +4359,17 @@
         </is>
       </c>
       <c r="C167">
-        <v>0.0008580288703059331</v>
+        <v>0.002368404926346932</v>
       </c>
       <c r="D167">
-        <v>0.0345965171017813</v>
+        <v>0.04468893569010359</v>
       </c>
       <c r="E167">
-        <v>0.00148145497616291</v>
+        <v>0.001352328248706446</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>&gt; 0.05</t>
+          <t>&lt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="C168">
-        <v>0.00131635257309794</v>
+        <v>-0.0005321096667331324</v>
       </c>
       <c r="D168">
-        <v>0.0344859457667994</v>
+        <v>0.0442349127601589</v>
       </c>
       <c r="E168">
-        <v>0.00147707277437471</v>
+        <v>0.001338589097745627</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -4407,13 +4407,13 @@
         </is>
       </c>
       <c r="C169">
-        <v>0.000870597284611036</v>
+        <v>0.0003420677359593918</v>
       </c>
       <c r="D169">
-        <v>0.033844990440994</v>
+        <v>0.04436079737544196</v>
       </c>
       <c r="E169">
-        <v>0.00144996618017272</v>
+        <v>0.001342398481851468</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -4431,13 +4431,13 @@
         </is>
       </c>
       <c r="C170">
-        <v>9.05624636315044e-05</v>
+        <v>-0.0006096914791488549</v>
       </c>
       <c r="D170">
-        <v>0.0333658783452819</v>
+        <v>0.04497917438669451</v>
       </c>
       <c r="E170">
-        <v>0.00142944035563436</v>
+        <v>0.001361111138301075</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="C171">
-        <v>0.000735542936241106</v>
+        <v>-0.0005931371669463363</v>
       </c>
       <c r="D171">
-        <v>0.0346605495224801</v>
+        <v>0.04435035490989643</v>
       </c>
       <c r="E171">
-        <v>0.00148526071732576</v>
+        <v>0.001342082483250801</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -4479,13 +4479,13 @@
         </is>
       </c>
       <c r="C172">
-        <v>0.00116698702915405</v>
+        <v>0.0003201695498158825</v>
       </c>
       <c r="D172">
-        <v>0.0343951906686594</v>
+        <v>0.04357646285359641</v>
       </c>
       <c r="E172">
-        <v>0.00147424205482831</v>
+        <v>0.00131866379866987</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -4503,17 +4503,17 @@
         </is>
       </c>
       <c r="C173">
-        <v>0.00208207960582166</v>
+        <v>5.567200153258426e-05</v>
       </c>
       <c r="D173">
-        <v>0.0350938981189998</v>
+        <v>0.04377502178120793</v>
       </c>
       <c r="E173">
-        <v>0.0015041899599653</v>
+        <v>0.001324672374231033</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>&lt; 0.05</t>
+          <t>&gt; 0.05</t>
         </is>
       </c>
     </row>
@@ -4527,13 +4527,13 @@
         </is>
       </c>
       <c r="C174">
-        <v>0.000763208025071006</v>
+        <v>-0.000828406748476036</v>
       </c>
       <c r="D174">
-        <v>0.0337446408016347</v>
+        <v>0.04359890566437642</v>
       </c>
       <c r="E174">
-        <v>0.00144635827357616</v>
+        <v>0.001319342938741781</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -4551,13 +4551,13 @@
         </is>
       </c>
       <c r="C175">
-        <v>0.00147238075063902</v>
+        <v>0.0005314805153230059</v>
       </c>
       <c r="D175">
-        <v>0.0338745641384752</v>
+        <v>0.04328555053168215</v>
       </c>
       <c r="E175">
-        <v>0.00145192703023517</v>
+        <v>0.001309860524554113</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -4575,13 +4575,13 @@
         </is>
       </c>
       <c r="C176">
-        <v>-0.000193646357336886</v>
+        <v>-0.0006857919928874011</v>
       </c>
       <c r="D176">
-        <v>0.0339018652233833</v>
+        <v>0.04281756359195146</v>
       </c>
       <c r="E176">
-        <v>0.00145344479501697</v>
+        <v>0.001295698809828746</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -4599,13 +4599,13 @@
         </is>
       </c>
       <c r="C177">
-        <v>0.000246044633016544</v>
+        <v>0.0001971931247016012</v>
       </c>
       <c r="D177">
-        <v>0.0334711342072445</v>
+        <v>0.0429322117181913</v>
       </c>
       <c r="E177">
-        <v>0.00143497844370166</v>
+        <v>0.001299168167453429</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -4623,13 +4623,13 @@
         </is>
       </c>
       <c r="C178">
-        <v>0.0009813984131421261</v>
+        <v>-0.0007286331828038233</v>
       </c>
       <c r="D178">
-        <v>0.0340333418105987</v>
+        <v>0.04309404630032126</v>
       </c>
       <c r="E178">
-        <v>0.00145908147488977</v>
+        <v>0.001304065430582486</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -4647,13 +4647,13 @@
         </is>
       </c>
       <c r="C179">
-        <v>0.00101994215803361</v>
+        <v>-3.075158496522427e-05</v>
       </c>
       <c r="D179">
-        <v>0.0347031098244778</v>
+        <v>0.042979098650042</v>
       </c>
       <c r="E179">
-        <v>0.00148779584878121</v>
+        <v>0.001300742053135238</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -4671,13 +4671,13 @@
         </is>
       </c>
       <c r="C180">
-        <v>-2.64801722867651e-05</v>
+        <v>0.0003376772721535645</v>
       </c>
       <c r="D180">
-        <v>0.0336258885220365</v>
+        <v>0.04330745976684518</v>
       </c>
       <c r="E180">
-        <v>0.00144195809640316</v>
+        <v>0.001310836031202357</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -4695,13 +4695,13 @@
         </is>
       </c>
       <c r="C181">
-        <v>0.00109331496672211</v>
+        <v>0.0001233882378168843</v>
       </c>
       <c r="D181">
-        <v>0.034145251905579</v>
+        <v>0.04310332110640237</v>
       </c>
       <c r="E181">
-        <v>0.00146458022159417</v>
+        <v>0.001304657134704837</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="C182">
-        <v>0.0010345608112663</v>
+        <v>-0.001193557222137484</v>
       </c>
       <c r="D182">
-        <v>0.0343231666141997</v>
+        <v>0.04320283851717711</v>
       </c>
       <c r="E182">
-        <v>0.00147221145430837</v>
+        <v>0.00130766934111172</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -4743,13 +4743,13 @@
         </is>
       </c>
       <c r="C183">
-        <v>0.00138171733792211</v>
+        <v>0.005307074500398382</v>
       </c>
       <c r="D183">
-        <v>0.0340847708643285</v>
+        <v>0.04377065613647888</v>
       </c>
       <c r="E183">
-        <v>0.00146233624791026</v>
+        <v>0.001324856121369428</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="C184">
-        <v>0.00115269422942078</v>
+        <v>-0.0004745744217976882</v>
       </c>
       <c r="D184">
-        <v>0.0330606786884431</v>
+        <v>0.04293475685434105</v>
       </c>
       <c r="E184">
-        <v>0.00141873964172162</v>
+        <v>0.001299555009196571</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -4791,13 +4791,13 @@
         </is>
       </c>
       <c r="C185">
-        <v>0.000880738164059683</v>
+        <v>-0.0001199408671661717</v>
       </c>
       <c r="D185">
-        <v>0.0331851464488679</v>
+        <v>0.04320571250346728</v>
       </c>
       <c r="E185">
-        <v>0.00142442241737434</v>
+        <v>0.001307756331316239</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -4815,13 +4815,13 @@
         </is>
       </c>
       <c r="C186">
-        <v>0.00053382625252718</v>
+        <v>0.0005624656886099114</v>
       </c>
       <c r="D186">
-        <v>0.0338393142075547</v>
+        <v>0.04230730684430415</v>
       </c>
       <c r="E186">
-        <v>0.00145250158290199</v>
+        <v>0.001280563267696084</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -4839,13 +4839,13 @@
         </is>
       </c>
       <c r="C187">
-        <v>0.00108966063133167</v>
+        <v>-0.0002547295433151444</v>
       </c>
       <c r="D187">
-        <v>0.0331769021951353</v>
+        <v>0.04352227037098689</v>
       </c>
       <c r="E187">
-        <v>0.00142441017134323</v>
+        <v>0.00131749506339348</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -4863,13 +4863,13 @@
         </is>
       </c>
       <c r="C188">
-        <v>0.0011515686644228</v>
+        <v>-0.001624247748540814</v>
       </c>
       <c r="D188">
-        <v>0.0337812979609004</v>
+        <v>0.04252458264096872</v>
       </c>
       <c r="E188">
-        <v>0.00145035917258539</v>
+        <v>0.001287293315003455</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -4887,13 +4887,13 @@
         </is>
       </c>
       <c r="C189">
-        <v>0.00129277101132737</v>
+        <v>-0.001547125998870527</v>
       </c>
       <c r="D189">
-        <v>0.0336712938426409</v>
+        <v>0.04192538591301168</v>
       </c>
       <c r="E189">
-        <v>0.00144633046193483</v>
+        <v>0.001269154584547628</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -4911,13 +4911,13 @@
         </is>
       </c>
       <c r="C190">
-        <v>-0.000902789809912508</v>
+        <v>-0.0007520583954377421</v>
       </c>
       <c r="D190">
-        <v>0.034201240429857</v>
+        <v>0.04182365955696089</v>
       </c>
       <c r="E190">
-        <v>0.00146944693886327</v>
+        <v>0.00126607515025407</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -4935,13 +4935,13 @@
         </is>
       </c>
       <c r="C191">
-        <v>0.00029381003056342</v>
+        <v>0.0004155925163430963</v>
       </c>
       <c r="D191">
-        <v>0.0334992704418195</v>
+        <v>0.04270475814526888</v>
       </c>
       <c r="E191">
-        <v>0.00143928699036049</v>
+        <v>0.001292747541895491</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -4959,13 +4959,13 @@
         </is>
       </c>
       <c r="C192">
-        <v>-0.000304737364377624</v>
+        <v>-0.000446334842961559</v>
       </c>
       <c r="D192">
-        <v>0.0332615256417018</v>
+        <v>0.04185722096749037</v>
       </c>
       <c r="E192">
-        <v>0.00142941583578954</v>
+        <v>0.001267091112709985</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -4983,13 +4983,13 @@
         </is>
       </c>
       <c r="C193">
-        <v>0.000776232917948141</v>
+        <v>-0.0008601500801352439</v>
       </c>
       <c r="D193">
-        <v>0.0337629172714288</v>
+        <v>0.04223981372169522</v>
       </c>
       <c r="E193">
-        <v>0.00145096316777859</v>
+        <v>0.001278672862941725</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -5007,13 +5007,13 @@
         </is>
       </c>
       <c r="C194">
-        <v>-0.000265617358464429</v>
+        <v>0.001513436456073128</v>
       </c>
       <c r="D194">
-        <v>0.0330575085474708</v>
+        <v>0.04225214420895171</v>
       </c>
       <c r="E194">
-        <v>0.00142098981545597</v>
+        <v>0.001279046128305668</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -5031,13 +5031,13 @@
         </is>
       </c>
       <c r="C195">
-        <v>0.000520525643804167</v>
+        <v>-0.0001127810046488539</v>
       </c>
       <c r="D195">
-        <v>0.0334870710452036</v>
+        <v>0.04231142328077248</v>
       </c>
       <c r="E195">
-        <v>0.00143945472588633</v>
+        <v>0.001280993408599442</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -5055,13 +5055,13 @@
         </is>
       </c>
       <c r="C196">
-        <v>8.96622979952818e-06</v>
+        <v>0.0001105510975558157</v>
       </c>
       <c r="D196">
-        <v>0.0342373515245052</v>
+        <v>0.042105920202279</v>
       </c>
       <c r="E196">
-        <v>0.00147205989638161</v>
+        <v>0.0012749238413664</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -5079,13 +5079,13 @@
         </is>
       </c>
       <c r="C197">
-        <v>0.000127343287180305</v>
+        <v>-0.0001909255516054621</v>
       </c>
       <c r="D197">
-        <v>0.0334157905955262</v>
+        <v>0.04278618558492914</v>
       </c>
       <c r="E197">
-        <v>0.00143673628511692</v>
+        <v>0.001295521575619218</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
